--- a/Databases/SinhHoc.xlsx
+++ b/Databases/SinhHoc.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Ten</t>
-  </si>
-  <si>
-    <t>Phương trình</t>
   </si>
   <si>
     <t>Vi khuẩn Ideonella sakaiensis</t>
@@ -90,9 +87,6 @@
     <t>Waxworm(sâu sáp)</t>
   </si>
   <si>
-    <t>1.83mg/day</t>
-  </si>
-  <si>
     <t>ăn LDPE</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
   </si>
   <si>
     <t>Salipaludibacillus agaradhaerens</t>
-  </si>
-  <si>
-    <t>C2H3Cl + Cl2 -&gt; C2H2Cl2 + HCl</t>
   </si>
   <si>
     <t>MSN</t>
@@ -420,7 +411,7 @@
   <dimension ref="A1:F1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C39" sqref="C39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -435,29 +426,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="38.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -466,22 +455,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="25.5">
+    <row r="4" spans="1:6" ht="63.75">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -490,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -502,10 +491,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
@@ -513,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
@@ -524,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75">
@@ -535,21 +524,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5">
+    </row>
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
@@ -557,10 +546,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75">
@@ -568,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75">
@@ -579,36 +568,34 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="12.75">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="25.5">
+    <row r="15" spans="1:6" ht="12.75">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75">
@@ -616,16 +603,14 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="12.75">
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="20" spans="4:6" ht="12.75">
       <c r="D20" s="1"/>
@@ -645,15 +630,7 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5" ht="12.75">
-      <c r="C39" s="10">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3">
-        <v>7</v>
-      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" ht="12.75">
       <c r="E40" s="3"/>
